--- a/data/FSR_S4/stability_error/FSR_S4 Stability Error Data.xlsx
+++ b/data/FSR_S4/stability_error/FSR_S4 Stability Error Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickruiz/Desktop/FSR/data/FSR_S4/stability_error/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE57B1AF-578B-8447-9D6A-00E5FE5C938E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53EF2DCB-EF09-A24F-BAB9-FAF4E49F62E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" xr2:uid="{05FAEE67-03BB-4EED-BB39-2994B23103BF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Force (lbf)</t>
   </si>
@@ -51,6 +51,15 @@
   </si>
   <si>
     <t>Error STD (%)</t>
+  </si>
+  <si>
+    <t>Average Error (lbf)</t>
+  </si>
+  <si>
+    <t>Max Error (lbf)</t>
+  </si>
+  <si>
+    <t>Min Error (lbf)</t>
   </si>
 </sst>
 </file>
@@ -422,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F91B404-E44C-43FD-8798-D46178A2E488}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="167" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -435,9 +444,12 @@
     <col min="3" max="3" width="15.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -453,8 +465,17 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>4</v>
       </c>
@@ -471,7 +492,7 @@
         <v>1.7528999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>4.25</v>
       </c>
@@ -488,7 +509,7 @@
         <v>1.9415</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>4.5</v>
       </c>
@@ -505,7 +526,7 @@
         <v>1.4575</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4.75</v>
       </c>
@@ -522,7 +543,7 @@
         <v>1.9337</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -539,7 +560,7 @@
         <v>2.1526000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>5.25</v>
       </c>
@@ -556,7 +577,7 @@
         <v>2.7753000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>5.5</v>
       </c>
@@ -573,7 +594,7 @@
         <v>1.9426000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>5.75</v>
       </c>
@@ -590,7 +611,7 @@
         <v>1.93</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -607,7 +628,7 @@
         <v>1.9261999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>6.25</v>
       </c>
@@ -624,7 +645,7 @@
         <v>2.2999000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>6.5</v>
       </c>
@@ -641,7 +662,7 @@
         <v>2.0834999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>6.75</v>
       </c>
@@ -658,7 +679,7 @@
         <v>2.2429999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>7</v>
       </c>
@@ -675,7 +696,7 @@
         <v>2.1232000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>7.25</v>
       </c>
@@ -692,7 +713,7 @@
         <v>2.4994000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>7.5</v>
       </c>

--- a/data/FSR_S4/stability_error/FSR_S4 Stability Error Data.xlsx
+++ b/data/FSR_S4/stability_error/FSR_S4 Stability Error Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickruiz/Desktop/FSR/data/FSR_S4/stability_error/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://amro365-my.sharepoint.com/personal/pr19556_appliedmed_com/Documents/Desktop/FSR/data/FSR_S4/stability_error/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53EF2DCB-EF09-A24F-BAB9-FAF4E49F62E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{53EF2DCB-EF09-A24F-BAB9-FAF4E49F62E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C137F3B8-F775-473A-8BA7-9AB9527414FA}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" xr2:uid="{05FAEE67-03BB-4EED-BB39-2994B23103BF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{05FAEE67-03BB-4EED-BB39-2994B23103BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,6 +66,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -103,7 +106,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -115,6 +118,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -135,9 +141,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -175,7 +181,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -281,7 +287,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -423,7 +429,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -434,22 +440,23 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="167" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -465,6 +472,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
@@ -475,7 +483,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>4</v>
       </c>
@@ -491,8 +499,20 @@
       <c r="E2" s="3">
         <v>1.7528999999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G2" s="5">
+        <f>A2*(1+(B2/100))</f>
+        <v>4.1095519999999999</v>
+      </c>
+      <c r="H2" s="5">
+        <f>A2*(1+(C2/100))</f>
+        <v>4.2943999999999996</v>
+      </c>
+      <c r="I2" s="5">
+        <f>A2*(1+(D2/100))</f>
+        <v>4.0011999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>4.25</v>
       </c>
@@ -508,8 +528,20 @@
       <c r="E3" s="3">
         <v>1.9415</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G3" s="5">
+        <f t="shared" ref="G3:G22" si="0">A3*(1+(B3/100))</f>
+        <v>4.362285</v>
+      </c>
+      <c r="H3" s="5">
+        <f>A3*(1+(C3/100))</f>
+        <v>4.5627999999999993</v>
+      </c>
+      <c r="I3" s="5">
+        <f t="shared" ref="I3:I22" si="1">A3*(1+(D3/100))</f>
+        <v>4.253825</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>4.5</v>
       </c>
@@ -525,8 +557,20 @@
       <c r="E4" s="3">
         <v>1.4575</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G4" s="5">
+        <f t="shared" si="0"/>
+        <v>4.5871919999999999</v>
+      </c>
+      <c r="H4" s="5">
+        <f>A4*(1+(C4/100))</f>
+        <v>4.7951999999999995</v>
+      </c>
+      <c r="I4" s="5">
+        <f t="shared" si="1"/>
+        <v>4.5049500000000009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4.75</v>
       </c>
@@ -542,8 +586,20 @@
       <c r="E5" s="3">
         <v>1.9337</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G5" s="5">
+        <f t="shared" si="0"/>
+        <v>4.8698187500000003</v>
+      </c>
+      <c r="H5" s="5">
+        <f>A5*(1+(C5/100))</f>
+        <v>5.1190750000000005</v>
+      </c>
+      <c r="I5" s="5">
+        <f t="shared" si="1"/>
+        <v>4.7519</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -559,8 +615,20 @@
       <c r="E6" s="3">
         <v>2.1526000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G6" s="5">
+        <f t="shared" si="0"/>
+        <v>5.1810500000000008</v>
+      </c>
+      <c r="H6" s="5">
+        <f>A6*(1+(C6/100))</f>
+        <v>5.4064999999999994</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" si="1"/>
+        <v>5.0024999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5.25</v>
       </c>
@@ -576,8 +644,20 @@
       <c r="E7" s="3">
         <v>2.7753000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G7" s="5">
+        <f t="shared" si="0"/>
+        <v>5.4422970000000008</v>
+      </c>
+      <c r="H7" s="5">
+        <f>A7*(1+(C7/100))</f>
+        <v>5.8154249999999994</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="1"/>
+        <v>5.2515749999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5.5</v>
       </c>
@@ -593,8 +673,20 @@
       <c r="E8" s="3">
         <v>1.9426000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G8" s="5">
+        <f t="shared" si="0"/>
+        <v>5.6412509999999996</v>
+      </c>
+      <c r="H8" s="5">
+        <f>A8*(1+(C8/100))</f>
+        <v>5.9575999999999993</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" si="1"/>
+        <v>5.5032999999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>5.75</v>
       </c>
@@ -610,8 +702,20 @@
       <c r="E9" s="3">
         <v>1.93</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G9" s="5">
+        <f t="shared" si="0"/>
+        <v>5.9099189999999995</v>
+      </c>
+      <c r="H9" s="5">
+        <f>A9*(1+(C9/100))</f>
+        <v>6.20425</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" si="1"/>
+        <v>5.7580500000000008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -627,8 +731,20 @@
       <c r="E10" s="3">
         <v>1.9261999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G10" s="5">
+        <f t="shared" si="0"/>
+        <v>6.1620840000000001</v>
+      </c>
+      <c r="H10" s="5">
+        <f>A10*(1+(C10/100))</f>
+        <v>6.5532000000000004</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" si="1"/>
+        <v>6.0023999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>6.25</v>
       </c>
@@ -644,8 +760,20 @@
       <c r="E11" s="3">
         <v>2.2999000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G11" s="5">
+        <f t="shared" si="0"/>
+        <v>6.4352375000000004</v>
+      </c>
+      <c r="H11" s="5">
+        <f>A11*(1+(C11/100))</f>
+        <v>6.8849999999999998</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" si="1"/>
+        <v>6.2506250000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>6.5</v>
       </c>
@@ -661,8 +789,20 @@
       <c r="E12" s="3">
         <v>2.0834999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G12" s="5">
+        <f t="shared" si="0"/>
+        <v>6.7296059999999995</v>
+      </c>
+      <c r="H12" s="5">
+        <f>A12*(1+(C12/100))</f>
+        <v>7.0876000000000001</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" si="1"/>
+        <v>6.5032499999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>6.75</v>
       </c>
@@ -678,8 +818,20 @@
       <c r="E13" s="3">
         <v>2.2429999999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G13" s="5">
+        <f t="shared" si="0"/>
+        <v>6.9656219999999998</v>
+      </c>
+      <c r="H13" s="5">
+        <f>A13*(1+(C13/100))</f>
+        <v>7.3804499999999997</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="1"/>
+        <v>6.7587750000000009</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>7</v>
       </c>
@@ -695,8 +847,20 @@
       <c r="E14" s="3">
         <v>2.1232000000000002</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G14" s="5">
+        <f t="shared" si="0"/>
+        <v>7.2336179999999999</v>
+      </c>
+      <c r="H14" s="5">
+        <f>A14*(1+(C14/100))</f>
+        <v>7.588000000000001</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" si="1"/>
+        <v>7.0069999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>7.25</v>
       </c>
@@ -712,8 +876,20 @@
       <c r="E15" s="3">
         <v>2.4994000000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G15" s="5">
+        <f t="shared" si="0"/>
+        <v>7.5192940000000004</v>
+      </c>
+      <c r="H15" s="5">
+        <f>A15*(1+(C15/100))</f>
+        <v>8.0126999999999988</v>
+      </c>
+      <c r="I15" s="5">
+        <f t="shared" si="1"/>
+        <v>7.2898750000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>7.5</v>
       </c>
@@ -729,8 +905,20 @@
       <c r="E16" s="3">
         <v>2.2486999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G16" s="5">
+        <f t="shared" si="0"/>
+        <v>7.7475450000000006</v>
+      </c>
+      <c r="H16" s="5">
+        <f>A16*(1+(C16/100))</f>
+        <v>8.1944999999999997</v>
+      </c>
+      <c r="I16" s="5">
+        <f t="shared" si="1"/>
+        <v>7.5082500000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>7.75</v>
       </c>
@@ -746,8 +934,20 @@
       <c r="E17" s="3">
         <v>2.8609</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G17" s="5">
+        <f t="shared" si="0"/>
+        <v>8.0944254999999998</v>
+      </c>
+      <c r="H17" s="5">
+        <f>A17*(1+(C17/100))</f>
+        <v>8.7141000000000002</v>
+      </c>
+      <c r="I17" s="5">
+        <f t="shared" si="1"/>
+        <v>7.7530999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>8</v>
       </c>
@@ -763,8 +963,20 @@
       <c r="E18" s="3">
         <v>2.3574999999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G18" s="5">
+        <f t="shared" si="0"/>
+        <v>8.2559520000000006</v>
+      </c>
+      <c r="H18" s="5">
+        <f>A18*(1+(C18/100))</f>
+        <v>8.7344000000000008</v>
+      </c>
+      <c r="I18" s="5">
+        <f t="shared" si="1"/>
+        <v>8.0079999999999991</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>8.25</v>
       </c>
@@ -780,8 +992,20 @@
       <c r="E19" s="3">
         <v>1.9372</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G19" s="5">
+        <f t="shared" si="0"/>
+        <v>8.4953054999999988</v>
+      </c>
+      <c r="H19" s="5">
+        <f>A19*(1+(C19/100))</f>
+        <v>8.8918500000000016</v>
+      </c>
+      <c r="I19" s="5">
+        <f t="shared" si="1"/>
+        <v>8.2532999999999994</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>8.5</v>
       </c>
@@ -797,8 +1021,20 @@
       <c r="E20" s="3">
         <v>3.2029000000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G20" s="5">
+        <f t="shared" si="0"/>
+        <v>8.865295999999999</v>
+      </c>
+      <c r="H20" s="5">
+        <f>A20*(1+(C20/100))</f>
+        <v>9.6449499999999997</v>
+      </c>
+      <c r="I20" s="5">
+        <f t="shared" si="1"/>
+        <v>8.5289000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>8.75</v>
       </c>
@@ -814,8 +1050,20 @@
       <c r="E21" s="3">
         <v>2.73</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G21" s="5">
+        <f t="shared" si="0"/>
+        <v>9.0808900000000001</v>
+      </c>
+      <c r="H21" s="5">
+        <f>A21*(1+(C21/100))</f>
+        <v>9.9714999999999989</v>
+      </c>
+      <c r="I21" s="5">
+        <f t="shared" si="1"/>
+        <v>8.7517499999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>9</v>
       </c>
@@ -831,9 +1079,21 @@
       <c r="E22" s="3">
         <v>2.6924000000000001</v>
       </c>
+      <c r="G22" s="5">
+        <f t="shared" si="0"/>
+        <v>9.3401460000000007</v>
+      </c>
+      <c r="H22" s="5">
+        <f>A22*(1+(C22/100))</f>
+        <v>9.9143999999999988</v>
+      </c>
+      <c r="I22" s="5">
+        <f t="shared" si="1"/>
+        <v>9.0126000000000008</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/FSR_S4/stability_error/FSR_S4 Stability Error Data.xlsx
+++ b/data/FSR_S4/stability_error/FSR_S4 Stability Error Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://amro365-my.sharepoint.com/personal/pr19556_appliedmed_com/Documents/Desktop/FSR/data/FSR_S4/stability_error/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{53EF2DCB-EF09-A24F-BAB9-FAF4E49F62E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C137F3B8-F775-473A-8BA7-9AB9527414FA}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{53EF2DCB-EF09-A24F-BAB9-FAF4E49F62E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BE69C39-BFF7-4A28-8ED0-7E70AC506BF0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{05FAEE67-03BB-4EED-BB39-2994B23103BF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Force (lbf)</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>Min Error (lbf)</t>
+  </si>
+  <si>
+    <t>5.00(2ndDay)</t>
   </si>
 </sst>
 </file>
@@ -437,15 +440,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F91B404-E44C-43FD-8798-D46178A2E488}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="167" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.140625" style="3" bestFit="1" customWidth="1"/>
@@ -504,7 +507,7 @@
         <v>4.1095519999999999</v>
       </c>
       <c r="H2" s="5">
-        <f>A2*(1+(C2/100))</f>
+        <f t="shared" ref="H2:H22" si="0">A2*(1+(C2/100))</f>
         <v>4.2943999999999996</v>
       </c>
       <c r="I2" s="5">
@@ -529,15 +532,15 @@
         <v>1.9415</v>
       </c>
       <c r="G3" s="5">
-        <f t="shared" ref="G3:G22" si="0">A3*(1+(B3/100))</f>
+        <f t="shared" ref="G3:G22" si="1">A3*(1+(B3/100))</f>
         <v>4.362285</v>
       </c>
       <c r="H3" s="5">
-        <f>A3*(1+(C3/100))</f>
+        <f t="shared" si="0"/>
         <v>4.5627999999999993</v>
       </c>
       <c r="I3" s="5">
-        <f t="shared" ref="I3:I22" si="1">A3*(1+(D3/100))</f>
+        <f t="shared" ref="I3:I22" si="2">A3*(1+(D3/100))</f>
         <v>4.253825</v>
       </c>
     </row>
@@ -558,15 +561,15 @@
         <v>1.4575</v>
       </c>
       <c r="G4" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.5871919999999999</v>
       </c>
       <c r="H4" s="5">
-        <f>A4*(1+(C4/100))</f>
+        <f t="shared" si="0"/>
         <v>4.7951999999999995</v>
       </c>
       <c r="I4" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5049500000000009</v>
       </c>
     </row>
@@ -587,15 +590,15 @@
         <v>1.9337</v>
       </c>
       <c r="G5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.8698187500000003</v>
       </c>
       <c r="H5" s="5">
-        <f>A5*(1+(C5/100))</f>
+        <f t="shared" si="0"/>
         <v>5.1190750000000005</v>
       </c>
       <c r="I5" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.7519</v>
       </c>
     </row>
@@ -616,15 +619,15 @@
         <v>2.1526000000000001</v>
       </c>
       <c r="G6" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.1810500000000008</v>
       </c>
       <c r="H6" s="5">
-        <f>A6*(1+(C6/100))</f>
+        <f t="shared" si="0"/>
         <v>5.4064999999999994</v>
       </c>
       <c r="I6" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.0024999999999995</v>
       </c>
     </row>
@@ -645,15 +648,15 @@
         <v>2.7753000000000001</v>
       </c>
       <c r="G7" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.4422970000000008</v>
       </c>
       <c r="H7" s="5">
-        <f>A7*(1+(C7/100))</f>
+        <f t="shared" si="0"/>
         <v>5.8154249999999994</v>
       </c>
       <c r="I7" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.2515749999999999</v>
       </c>
     </row>
@@ -674,15 +677,15 @@
         <v>1.9426000000000001</v>
       </c>
       <c r="G8" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.6412509999999996</v>
       </c>
       <c r="H8" s="5">
-        <f>A8*(1+(C8/100))</f>
+        <f t="shared" si="0"/>
         <v>5.9575999999999993</v>
       </c>
       <c r="I8" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.5032999999999994</v>
       </c>
     </row>
@@ -703,15 +706,15 @@
         <v>1.93</v>
       </c>
       <c r="G9" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.9099189999999995</v>
       </c>
       <c r="H9" s="5">
-        <f>A9*(1+(C9/100))</f>
+        <f t="shared" si="0"/>
         <v>6.20425</v>
       </c>
       <c r="I9" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.7580500000000008</v>
       </c>
     </row>
@@ -732,15 +735,15 @@
         <v>1.9261999999999999</v>
       </c>
       <c r="G10" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.1620840000000001</v>
       </c>
       <c r="H10" s="5">
-        <f>A10*(1+(C10/100))</f>
+        <f t="shared" si="0"/>
         <v>6.5532000000000004</v>
       </c>
       <c r="I10" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.0023999999999997</v>
       </c>
     </row>
@@ -761,15 +764,15 @@
         <v>2.2999000000000001</v>
       </c>
       <c r="G11" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.4352375000000004</v>
       </c>
       <c r="H11" s="5">
-        <f>A11*(1+(C11/100))</f>
+        <f t="shared" si="0"/>
         <v>6.8849999999999998</v>
       </c>
       <c r="I11" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.2506250000000003</v>
       </c>
     </row>
@@ -790,15 +793,15 @@
         <v>2.0834999999999999</v>
       </c>
       <c r="G12" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.7296059999999995</v>
       </c>
       <c r="H12" s="5">
-        <f>A12*(1+(C12/100))</f>
+        <f t="shared" si="0"/>
         <v>7.0876000000000001</v>
       </c>
       <c r="I12" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.5032499999999995</v>
       </c>
     </row>
@@ -819,15 +822,15 @@
         <v>2.2429999999999999</v>
       </c>
       <c r="G13" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.9656219999999998</v>
       </c>
       <c r="H13" s="5">
-        <f>A13*(1+(C13/100))</f>
+        <f t="shared" si="0"/>
         <v>7.3804499999999997</v>
       </c>
       <c r="I13" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.7587750000000009</v>
       </c>
     </row>
@@ -848,15 +851,15 @@
         <v>2.1232000000000002</v>
       </c>
       <c r="G14" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.2336179999999999</v>
       </c>
       <c r="H14" s="5">
-        <f>A14*(1+(C14/100))</f>
+        <f t="shared" si="0"/>
         <v>7.588000000000001</v>
       </c>
       <c r="I14" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.0069999999999997</v>
       </c>
     </row>
@@ -877,15 +880,15 @@
         <v>2.4994000000000001</v>
       </c>
       <c r="G15" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.5192940000000004</v>
       </c>
       <c r="H15" s="5">
-        <f>A15*(1+(C15/100))</f>
+        <f t="shared" si="0"/>
         <v>8.0126999999999988</v>
       </c>
       <c r="I15" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.2898750000000003</v>
       </c>
     </row>
@@ -906,15 +909,15 @@
         <v>2.2486999999999999</v>
       </c>
       <c r="G16" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.7475450000000006</v>
       </c>
       <c r="H16" s="5">
-        <f>A16*(1+(C16/100))</f>
+        <f t="shared" si="0"/>
         <v>8.1944999999999997</v>
       </c>
       <c r="I16" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.5082500000000003</v>
       </c>
     </row>
@@ -935,15 +938,15 @@
         <v>2.8609</v>
       </c>
       <c r="G17" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.0944254999999998</v>
       </c>
       <c r="H17" s="5">
-        <f>A17*(1+(C17/100))</f>
+        <f t="shared" si="0"/>
         <v>8.7141000000000002</v>
       </c>
       <c r="I17" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.7530999999999999</v>
       </c>
     </row>
@@ -964,15 +967,15 @@
         <v>2.3574999999999999</v>
       </c>
       <c r="G18" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.2559520000000006</v>
       </c>
       <c r="H18" s="5">
-        <f>A18*(1+(C18/100))</f>
+        <f t="shared" si="0"/>
         <v>8.7344000000000008</v>
       </c>
       <c r="I18" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.0079999999999991</v>
       </c>
     </row>
@@ -993,15 +996,15 @@
         <v>1.9372</v>
       </c>
       <c r="G19" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.4953054999999988</v>
       </c>
       <c r="H19" s="5">
-        <f>A19*(1+(C19/100))</f>
+        <f t="shared" si="0"/>
         <v>8.8918500000000016</v>
       </c>
       <c r="I19" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.2532999999999994</v>
       </c>
     </row>
@@ -1022,15 +1025,15 @@
         <v>3.2029000000000001</v>
       </c>
       <c r="G20" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.865295999999999</v>
       </c>
       <c r="H20" s="5">
-        <f>A20*(1+(C20/100))</f>
+        <f t="shared" si="0"/>
         <v>9.6449499999999997</v>
       </c>
       <c r="I20" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.5289000000000001</v>
       </c>
     </row>
@@ -1051,15 +1054,15 @@
         <v>2.73</v>
       </c>
       <c r="G21" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.0808900000000001</v>
       </c>
       <c r="H21" s="5">
-        <f>A21*(1+(C21/100))</f>
+        <f t="shared" si="0"/>
         <v>9.9714999999999989</v>
       </c>
       <c r="I21" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.7517499999999995</v>
       </c>
     </row>
@@ -1080,16 +1083,21 @@
         <v>2.6924000000000001</v>
       </c>
       <c r="G22" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.3401460000000007</v>
       </c>
       <c r="H22" s="5">
-        <f>A22*(1+(C22/100))</f>
+        <f t="shared" si="0"/>
         <v>9.9143999999999988</v>
       </c>
       <c r="I22" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.0126000000000008</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/data/FSR_S4/stability_error/FSR_S4 Stability Error Data.xlsx
+++ b/data/FSR_S4/stability_error/FSR_S4 Stability Error Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://amro365-my.sharepoint.com/personal/pr19556_appliedmed_com/Documents/Desktop/FSR/data/FSR_S4/stability_error/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickruiz/Desktop/FSR/data/FSR_S4/stability_error/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{53EF2DCB-EF09-A24F-BAB9-FAF4E49F62E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BE69C39-BFF7-4A28-8ED0-7E70AC506BF0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C3E3B8-F228-114A-B0C9-4A78A1F67C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{05FAEE67-03BB-4EED-BB39-2994B23103BF}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="29040" windowHeight="17640" xr2:uid="{05FAEE67-03BB-4EED-BB39-2994B23103BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Force (lbf)</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>Min Error (lbf)</t>
-  </si>
-  <si>
-    <t>5.00(2ndDay)</t>
   </si>
 </sst>
 </file>
@@ -144,9 +141,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -184,7 +181,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -290,7 +287,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -432,7 +429,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -440,26 +437,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F91B404-E44C-43FD-8798-D46178A2E488}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,7 +483,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>4</v>
       </c>
@@ -515,7 +512,7 @@
         <v>4.0011999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>4.25</v>
       </c>
@@ -544,7 +541,7 @@
         <v>4.253825</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>4.5</v>
       </c>
@@ -573,7 +570,7 @@
         <v>4.5049500000000009</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4.75</v>
       </c>
@@ -602,7 +599,7 @@
         <v>4.7519</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -631,7 +628,7 @@
         <v>5.0024999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>5.25</v>
       </c>
@@ -660,7 +657,7 @@
         <v>5.2515749999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>5.5</v>
       </c>
@@ -689,7 +686,7 @@
         <v>5.5032999999999994</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>5.75</v>
       </c>
@@ -718,7 +715,7 @@
         <v>5.7580500000000008</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -747,7 +744,7 @@
         <v>6.0023999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>6.25</v>
       </c>
@@ -776,7 +773,7 @@
         <v>6.2506250000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>6.5</v>
       </c>
@@ -805,7 +802,7 @@
         <v>6.5032499999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>6.75</v>
       </c>
@@ -834,7 +831,7 @@
         <v>6.7587750000000009</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>7</v>
       </c>
@@ -863,7 +860,7 @@
         <v>7.0069999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>7.25</v>
       </c>
@@ -892,7 +889,7 @@
         <v>7.2898750000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>7.5</v>
       </c>
@@ -921,7 +918,7 @@
         <v>7.5082500000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>7.75</v>
       </c>
@@ -950,7 +947,7 @@
         <v>7.7530999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>8</v>
       </c>
@@ -979,7 +976,7 @@
         <v>8.0079999999999991</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>8.25</v>
       </c>
@@ -1008,7 +1005,7 @@
         <v>8.2532999999999994</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>8.5</v>
       </c>
@@ -1037,7 +1034,7 @@
         <v>8.5289000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>8.75</v>
       </c>
@@ -1066,7 +1063,7 @@
         <v>8.7517499999999995</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>9</v>
       </c>
@@ -1093,11 +1090,6 @@
       <c r="I22" s="5">
         <f t="shared" si="2"/>
         <v>9.0126000000000008</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/data/FSR_S4/stability_error/FSR_S4 Stability Error Data.xlsx
+++ b/data/FSR_S4/stability_error/FSR_S4 Stability Error Data.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{53EF2DCB-EF09-A24F-BAB9-FAF4E49F62E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BE69C39-BFF7-4A28-8ED0-7E70AC506BF0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{05FAEE67-03BB-4EED-BB39-2994B23103BF}"/>
+    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="17670" xr2:uid="{05FAEE67-03BB-4EED-BB39-2994B23103BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -443,23 +443,23 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,7 +486,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>4</v>
       </c>
@@ -515,7 +515,7 @@
         <v>4.0011999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>4.25</v>
       </c>
@@ -544,7 +544,7 @@
         <v>4.253825</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>4.5</v>
       </c>
@@ -573,7 +573,7 @@
         <v>4.5049500000000009</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4.75</v>
       </c>
@@ -602,7 +602,7 @@
         <v>4.7519</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -631,7 +631,7 @@
         <v>5.0024999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5.25</v>
       </c>
@@ -660,7 +660,7 @@
         <v>5.2515749999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>5.5</v>
       </c>
@@ -689,7 +689,7 @@
         <v>5.5032999999999994</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>5.75</v>
       </c>
@@ -718,7 +718,7 @@
         <v>5.7580500000000008</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -747,7 +747,7 @@
         <v>6.0023999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>6.25</v>
       </c>
@@ -776,7 +776,7 @@
         <v>6.2506250000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>6.5</v>
       </c>
@@ -805,7 +805,7 @@
         <v>6.5032499999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>6.75</v>
       </c>
@@ -834,7 +834,7 @@
         <v>6.7587750000000009</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>7</v>
       </c>
@@ -863,7 +863,7 @@
         <v>7.0069999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>7.25</v>
       </c>
@@ -892,7 +892,7 @@
         <v>7.2898750000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>7.5</v>
       </c>
@@ -921,7 +921,7 @@
         <v>7.5082500000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>7.75</v>
       </c>
@@ -950,7 +950,7 @@
         <v>7.7530999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>8</v>
       </c>
@@ -979,7 +979,7 @@
         <v>8.0079999999999991</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>8.25</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>8.2532999999999994</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>8.5</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>8.5289000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>8.75</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>8.7517499999999995</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>9</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>9.0126000000000008</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>8</v>
       </c>
